--- a/data-raw/SusitnaEG survey.xlsx
+++ b/data-raw/SusitnaEG survey.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\SusitnaEG\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\RTS\Reimer\SusitnaEG\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67AC382-920B-4F56-9CDB-F9DBA0A63C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EBC68FC-AD1B-4F05-84DC-370D7B3E8123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Single aerial survey counts" sheetId="16" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Yentna</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>added 10/23/2023 teams message (10/3/2023) from Nick</t>
+  </si>
+  <si>
+    <t>added 2/5/2025, teams message (1/10/2025) from Nick</t>
   </si>
 </sst>
 </file>
@@ -540,10 +543,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EDC27F-8651-4814-BEDB-F2255827BE06}">
-  <dimension ref="A1:Z49"/>
+  <dimension ref="A1:Z50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y51" sqref="Y51"/>
+      <pane ySplit="4" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z51" sqref="Z51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2946,6 +2950,32 @@
         <v>30</v>
       </c>
     </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2024</v>
+      </c>
+      <c r="H50">
+        <v>65</v>
+      </c>
+      <c r="J50">
+        <v>194</v>
+      </c>
+      <c r="L50">
+        <v>220</v>
+      </c>
+      <c r="N50">
+        <v>461</v>
+      </c>
+      <c r="O50">
+        <v>448</v>
+      </c>
+      <c r="T50">
+        <v>322</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="Q3:T3"/>
